--- a/database/GKTW_Transportation_Data.xlsx
+++ b/database/GKTW_Transportation_Data.xlsx
@@ -1,41 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivynguyen/Documents/GitHub/GKTW_Transportation/database/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D1008-0BD8-1B40-BBA4-0EF365E7D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="25600" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>Pickup</t>
+  </si>
+  <si>
+    <t>Dropoff</t>
+  </si>
+  <si>
+    <t>NumOfPeople</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>travelTime</t>
+  </si>
+  <si>
+    <t>timeFromPrev</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,83 +100,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,111 +405,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>WaitTime</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Reservation</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dropoff</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>NumOfPeople</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>travelTime</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>timeFromPrev</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ADA</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>geo</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10:56:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Welcome Hut and Security Office</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Towne Hall</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Picking Up</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/database/GKTW_Transportation_Data.xlsx
+++ b/database/GKTW_Transportation_Data.xlsx
@@ -1,81 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivynguyen/Documents/GitHub/GKTW_Transportation/database/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D1008-0BD8-1B40-BBA4-0EF365E7D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="25600" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="680" windowWidth="25600" windowHeight="14880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>Reservation</t>
-  </si>
-  <si>
-    <t>Pickup</t>
-  </si>
-  <si>
-    <t>Dropoff</t>
-  </si>
-  <si>
-    <t>NumOfPeople</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>travelTime</t>
-  </si>
-  <si>
-    <t>timeFromPrev</t>
-  </si>
-  <si>
-    <t>ADA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,25 +62,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,45 +429,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>WaitTime</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reservation</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dropoff</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NumOfPeople</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>travelTime</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>timeFromPrev</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ADA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Noel</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14:58:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Gallery of Hope</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Villa 113/114</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Picking Up</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="K2" s="3" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>jese</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14:58:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Villa 125/126</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Villa 199/200</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Picking Up</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>mary</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gallery of Hope</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Villa 181/182</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Picking Up</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>geo</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:06:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gallery of Hope</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Amberville Train Station &amp; Lori's Magical Flight</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Picking Up</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>elle</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15:06:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Amberville Train Station &amp; Lori's Magical Flight</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Villa 287/288</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Picking Up</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>geo</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>15:14:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Marc's Dino-Putt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Villa 101/102</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Picking Up</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>45257</v>
       </c>
     </row>
   </sheetData>

--- a/database/GKTW_Transportation_Data.xlsx
+++ b/database/GKTW_Transportation_Data.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
@@ -769,6 +769,141 @@
         <v>45257</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>don</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20:21:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Julie's Safari Theatre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Villa 279/280</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picking Up</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>jane</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20:21:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Audrey's Pool</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Villa 237/238</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Picking Up</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>josh</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20:21:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gallery of Hope</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Miss Pitty Pat's Garden of Hope &amp; Butterfly Garden</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Picking Up</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>45257</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/GKTW_Transportation_Data.xlsx
+++ b/database/GKTW_Transportation_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="680" windowWidth="25600" windowHeight="14880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="740" windowWidth="25600" windowHeight="14880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,9 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,13 +63,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +436,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -502,11 +504,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Noel</t>
+          <t>jese</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -515,12 +517,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gallery of Hope</t>
+          <t>Villa 125/126</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Villa 113/114</t>
+          <t>Villa 199/200</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -532,40 +534,40 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="n">
         <v>45257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jese</t>
+          <t>mary</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:58:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Villa 125/126</t>
+          <t>Gallery of Hope</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Villa 199/200</t>
+          <t>Villa 181/182</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -577,22 +579,22 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
         <v>45257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mary</t>
+          <t>geo</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -600,7 +602,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:06:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Villa 181/182</t>
+          <t>Amberville Train Station &amp; Lori's Magical Flight</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -622,22 +624,22 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="n">
         <v>45257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>geo</t>
+          <t>elle</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -650,12 +652,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gallery of Hope</t>
+          <t>Amberville Train Station &amp; Lori's Magical Flight</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Amberville Train Station &amp; Lori's Magical Flight</t>
+          <t>Villa 287/288</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -667,40 +669,40 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
         <v>45257</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>elle</t>
+          <t>geo</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:06:00</t>
+          <t>15:14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Amberville Train Station &amp; Lori's Magical Flight</t>
+          <t>Marc's Dino-Putt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Villa 287/288</t>
+          <t>Villa 101/102</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -715,37 +717,37 @@
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="2" t="n">
         <v>45257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geo</t>
+          <t>will</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:14:00</t>
+          <t>09:50:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Marc's Dino-Putt</t>
+          <t>Julie's Safari Theatre</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Villa 101/102</t>
+          <t>Villa 293/294</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -760,41 +762,41 @@
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <v>45257</v>
+      <c r="K7" s="4" t="n">
+        <v>45258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>don</t>
+          <t>leo</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:21:00</t>
+          <t>09:50:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Julie's Safari Theatre</t>
+          <t>Villa 235/236</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Villa 279/280</t>
+          <t>Amberville Train Station &amp; Lori's Magical Flight</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -805,103 +807,13 @@
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="3" t="n">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>jane</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20:21:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Audrey's Pool</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Villa 237/238</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Picking Up</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>josh</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>17</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20:21:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Gallery of Hope</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Miss Pitty Pat's Garden of Hope &amp; Butterfly Garden</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Picking Up</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>45257</v>
+      <c r="K8" s="4" t="n">
+        <v>45258</v>
       </c>
     </row>
   </sheetData>
